--- a/ai/assets/textbook/pinyin/20200824.xlsx
+++ b/ai/assets/textbook/pinyin/20200824.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\pinyin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612311AD-D1C9-4440-AAE9-A3D2460FCF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEF70B9-7159-4EA2-94E9-A5DA6A8F9A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24555" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="278">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -846,6 +846,46 @@
   </si>
   <si>
     <t>看好抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要不贪心赢钱简单的，幑{65}忪錝 号{11} 真人之王{64}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忪錝 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幑{65}忪錝 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幑{65}忪錝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幑{65}忪錝 号{11} 真人之王{64}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要不贪心赢钱简单的，幑{65}忪錝 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天目标完成了 想要赢钱的，幑{65}忪錝 号{11}百家探路{9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天目标完成了 想要赢钱的，幑{65}忪錝 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要赢钱的，幑{65}忪錝 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幑{65}忪錝 号{11}百家探路{9}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3365,6 +3405,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{D5E2A364-7B88-4106-9A95-3E56C3C6E261}"/>
   <phoneticPr fontId="1" type="noConversion"/>
